--- a/NRI_STLF_Data/WeatherData/T_yazd/T_yazd94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_yazd/T_yazd94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_yazd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>Rain-Thunderstorm</t>
   </si>
@@ -36,12 +41,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -129,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,7 +169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="D377" sqref="D377"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AC388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -464,7 +469,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -544,7 +549,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -624,7 +629,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -701,7 +706,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -778,7 +783,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -855,7 +860,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -935,7 +940,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1089,7 +1094,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1166,7 +1171,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1326,7 +1331,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1637,7 +1642,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2022,7 +2027,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2487,7 +2492,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2727,7 +2732,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2878,7 +2883,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3035,7 +3040,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3192,7 +3197,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3577,7 +3582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3731,7 +3736,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3885,7 +3890,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4131,7 +4136,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4214,7 +4219,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4291,7 +4296,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4374,7 +4379,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4451,7 +4456,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4605,7 +4610,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4682,7 +4687,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4993,7 +4998,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5070,7 +5075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5147,7 +5152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5381,7 +5386,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5612,7 +5617,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5849,7 +5854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5926,7 +5931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6080,7 +6085,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6157,7 +6162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6311,7 +6316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6388,7 +6393,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6462,7 +6467,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6616,7 +6621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6699,7 +6704,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6853,7 +6858,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6930,7 +6935,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -7007,7 +7012,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7084,7 +7089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7161,7 +7166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7241,7 +7246,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7315,7 +7320,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7392,7 +7397,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7469,7 +7474,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7623,7 +7628,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7777,7 +7782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7854,7 +7859,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -8008,7 +8013,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8085,7 +8090,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8236,7 +8241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8310,7 +8315,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8384,7 +8389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8458,7 +8463,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8532,7 +8537,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8609,7 +8614,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8686,7 +8691,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8763,7 +8768,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8840,7 +8845,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8917,7 +8922,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8991,7 +8996,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -9068,7 +9073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9145,7 +9150,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9219,7 +9224,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9296,7 +9301,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9373,7 +9378,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9450,7 +9455,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9527,7 +9532,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9604,7 +9609,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9681,7 +9686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9758,7 +9763,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9838,7 +9843,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9918,7 +9923,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9995,7 +10000,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -10072,7 +10077,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10152,7 +10157,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10229,7 +10234,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10306,7 +10311,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10383,7 +10388,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10460,7 +10465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10537,7 +10542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10617,7 +10622,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10694,7 +10699,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10774,7 +10779,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10848,7 +10853,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10925,7 +10930,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -11002,7 +11007,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -11079,7 +11084,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11156,7 +11161,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11233,7 +11238,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11310,7 +11315,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11387,7 +11392,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11464,7 +11469,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11538,7 +11543,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11615,7 +11620,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11689,7 +11694,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11763,7 +11768,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11837,7 +11842,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11911,7 +11916,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11985,7 +11990,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -12059,7 +12064,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12133,7 +12138,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12207,7 +12212,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12281,7 +12286,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12358,7 +12363,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12435,7 +12440,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12512,7 +12517,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12589,7 +12594,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12666,7 +12671,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12743,7 +12748,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12820,7 +12825,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12897,7 +12902,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12974,7 +12979,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -13051,7 +13056,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13128,7 +13133,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13205,7 +13210,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13282,7 +13287,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13359,7 +13364,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13436,7 +13441,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13513,7 +13518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13590,7 +13595,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13670,7 +13675,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13747,7 +13752,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13827,7 +13832,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13907,7 +13912,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13984,7 +13989,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -14061,7 +14066,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14138,7 +14143,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14215,7 +14220,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14292,7 +14297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14372,7 +14377,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14449,7 +14454,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14529,7 +14534,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14606,7 +14611,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14680,7 +14685,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14754,7 +14759,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14828,7 +14833,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14902,7 +14907,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14976,7 +14981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -15050,7 +15055,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -15127,7 +15132,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15204,7 +15209,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15281,7 +15286,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15358,7 +15363,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15435,7 +15440,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15512,7 +15517,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15589,7 +15594,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15666,7 +15671,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15743,7 +15748,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15820,7 +15825,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15897,7 +15902,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15974,7 +15979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -16051,7 +16056,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -16128,7 +16133,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16202,7 +16207,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16279,7 +16284,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16356,7 +16361,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16430,7 +16435,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16507,7 +16512,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16584,7 +16589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16664,7 +16669,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16741,7 +16746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16818,7 +16823,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16895,7 +16900,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16972,7 +16977,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -17049,7 +17054,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -17129,7 +17134,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17206,7 +17211,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17280,7 +17285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17357,7 +17362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17434,7 +17439,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17511,7 +17516,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17588,7 +17593,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17665,7 +17670,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17745,7 +17750,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17822,7 +17827,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17899,7 +17904,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17976,7 +17981,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -18053,7 +18058,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -18127,7 +18132,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18204,7 +18209,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18281,7 +18286,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18358,7 +18363,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18435,7 +18440,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18518,7 +18523,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18595,7 +18600,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18672,7 +18677,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18749,7 +18754,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18823,7 +18828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18897,7 +18902,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18974,7 +18979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -19051,7 +19056,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -19128,7 +19133,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19205,7 +19210,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19282,7 +19287,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19362,7 +19367,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19436,7 +19441,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19513,7 +19518,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19587,7 +19592,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19661,7 +19666,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19735,7 +19740,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19812,7 +19817,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19886,7 +19891,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19960,7 +19965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -20034,7 +20039,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20111,7 +20116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20185,7 +20190,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20265,7 +20270,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20342,7 +20347,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20416,7 +20421,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20493,7 +20498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20573,7 +20578,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20650,7 +20655,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20724,7 +20729,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20801,7 +20806,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20875,7 +20880,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20949,7 +20954,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -21026,7 +21031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21103,7 +21108,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21183,7 +21188,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21260,7 +21265,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21334,7 +21339,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21411,7 +21416,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21488,7 +21493,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21565,7 +21570,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21642,7 +21647,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21719,7 +21724,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21796,7 +21801,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21876,7 +21881,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21956,7 +21961,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -22033,7 +22038,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22110,7 +22115,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22187,7 +22192,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22264,7 +22269,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22341,7 +22346,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22418,7 +22423,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22498,7 +22503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22578,7 +22583,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22655,7 +22660,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22729,7 +22734,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22806,7 +22811,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22883,7 +22888,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22957,7 +22962,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -23034,7 +23039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23114,7 +23119,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23191,7 +23196,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23265,7 +23270,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23342,7 +23347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23416,7 +23421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23490,7 +23495,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23564,7 +23569,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23638,7 +23643,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23712,7 +23717,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23786,7 +23791,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23860,7 +23865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23937,7 +23942,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -24014,7 +24019,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24091,7 +24096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24168,7 +24173,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24245,7 +24250,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24325,7 +24330,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24402,7 +24407,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24479,7 +24484,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24556,7 +24561,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24633,7 +24638,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24710,7 +24715,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24784,7 +24789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24861,7 +24866,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24938,7 +24943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -25015,7 +25020,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25092,7 +25097,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25166,7 +25171,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25240,7 +25245,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25317,7 +25322,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25394,7 +25399,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25471,7 +25476,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25545,7 +25550,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25625,7 +25630,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25702,7 +25707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25776,7 +25781,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25853,7 +25858,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25930,7 +25935,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -26007,7 +26012,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26084,7 +26089,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26161,7 +26166,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26235,7 +26240,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26312,7 +26317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26386,7 +26391,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26460,7 +26465,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26537,7 +26542,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26614,7 +26619,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26688,7 +26693,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26762,7 +26767,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26836,7 +26841,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26916,7 +26921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -26999,7 +27004,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27079,7 +27084,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27156,7 +27161,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27233,7 +27238,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27310,7 +27315,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27387,7 +27392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27464,7 +27469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27541,7 +27546,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27615,7 +27620,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27692,7 +27697,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27769,7 +27774,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27846,7 +27851,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27923,7 +27928,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -28000,7 +28005,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28077,7 +28082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28154,7 +28159,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28231,7 +28236,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28308,7 +28313,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28385,7 +28390,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28457,1456 +28462,6 @@
       </c>
       <c r="AA365">
         <v>312</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>23</v>
-      </c>
-      <c r="G366">
-        <v>16</v>
-      </c>
-      <c r="H366">
-        <v>8</v>
-      </c>
-      <c r="I366">
-        <v>-15</v>
-      </c>
-      <c r="J366">
-        <v>-20</v>
-      </c>
-      <c r="K366">
-        <v>-25</v>
-      </c>
-      <c r="L366">
-        <v>16</v>
-      </c>
-      <c r="M366">
-        <v>8</v>
-      </c>
-      <c r="N366">
-        <v>4</v>
-      </c>
-      <c r="O366">
-        <v>1021</v>
-      </c>
-      <c r="P366">
-        <v>1018</v>
-      </c>
-      <c r="Q366">
-        <v>1012</v>
-      </c>
-      <c r="R366">
-        <v>31</v>
-      </c>
-      <c r="S366">
-        <v>25</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>19</v>
-      </c>
-      <c r="V366">
-        <v>8</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>1</v>
-      </c>
-      <c r="AA366">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>27</v>
-      </c>
-      <c r="G367">
-        <v>19</v>
-      </c>
-      <c r="H367">
-        <v>11</v>
-      </c>
-      <c r="I367">
-        <v>2</v>
-      </c>
-      <c r="J367">
-        <v>-9</v>
-      </c>
-      <c r="K367">
-        <v>-19</v>
-      </c>
-      <c r="L367">
-        <v>30</v>
-      </c>
-      <c r="M367">
-        <v>14</v>
-      </c>
-      <c r="N367">
-        <v>4</v>
-      </c>
-      <c r="O367">
-        <v>1020</v>
-      </c>
-      <c r="P367">
-        <v>1017</v>
-      </c>
-      <c r="Q367">
-        <v>1009</v>
-      </c>
-      <c r="R367">
-        <v>19</v>
-      </c>
-      <c r="S367">
-        <v>9</v>
-      </c>
-      <c r="T367">
-        <v>6</v>
-      </c>
-      <c r="U367">
-        <v>37</v>
-      </c>
-      <c r="V367">
-        <v>10</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>5</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA367">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>23</v>
-      </c>
-      <c r="G368">
-        <v>18</v>
-      </c>
-      <c r="H368">
-        <v>13</v>
-      </c>
-      <c r="I368">
-        <v>10</v>
-      </c>
-      <c r="J368">
-        <v>5</v>
-      </c>
-      <c r="K368">
-        <v>1</v>
-      </c>
-      <c r="L368">
-        <v>77</v>
-      </c>
-      <c r="M368">
-        <v>47</v>
-      </c>
-      <c r="N368">
-        <v>17</v>
-      </c>
-      <c r="O368">
-        <v>1016</v>
-      </c>
-      <c r="P368">
-        <v>1013</v>
-      </c>
-      <c r="Q368">
-        <v>1006</v>
-      </c>
-      <c r="R368">
-        <v>19</v>
-      </c>
-      <c r="S368">
-        <v>9</v>
-      </c>
-      <c r="T368">
-        <v>5</v>
-      </c>
-      <c r="U368">
-        <v>39</v>
-      </c>
-      <c r="V368">
-        <v>8</v>
-      </c>
-      <c r="W368">
-        <v>69</v>
-      </c>
-      <c r="X368">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y368">
-        <v>5</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA368">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>19</v>
-      </c>
-      <c r="G369">
-        <v>13</v>
-      </c>
-      <c r="H369">
-        <v>8</v>
-      </c>
-      <c r="I369">
-        <v>11</v>
-      </c>
-      <c r="J369">
-        <v>1</v>
-      </c>
-      <c r="K369">
-        <v>-6</v>
-      </c>
-      <c r="L369">
-        <v>100</v>
-      </c>
-      <c r="M369">
-        <v>46</v>
-      </c>
-      <c r="N369">
-        <v>11</v>
-      </c>
-      <c r="O369">
-        <v>1020</v>
-      </c>
-      <c r="P369">
-        <v>1015</v>
-      </c>
-      <c r="Q369">
-        <v>1008</v>
-      </c>
-      <c r="R369">
-        <v>14</v>
-      </c>
-      <c r="S369">
-        <v>8</v>
-      </c>
-      <c r="T369">
-        <v>0</v>
-      </c>
-      <c r="U369">
-        <v>29</v>
-      </c>
-      <c r="V369">
-        <v>8</v>
-      </c>
-      <c r="W369">
-        <v>42</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>2</v>
-      </c>
-      <c r="AA369">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>21</v>
-      </c>
-      <c r="G370">
-        <v>14</v>
-      </c>
-      <c r="H370">
-        <v>7</v>
-      </c>
-      <c r="I370">
-        <v>-2</v>
-      </c>
-      <c r="J370">
-        <v>-6</v>
-      </c>
-      <c r="K370">
-        <v>-10</v>
-      </c>
-      <c r="L370">
-        <v>50</v>
-      </c>
-      <c r="M370">
-        <v>28</v>
-      </c>
-      <c r="N370">
-        <v>5</v>
-      </c>
-      <c r="O370">
-        <v>1025</v>
-      </c>
-      <c r="P370">
-        <v>1023</v>
-      </c>
-      <c r="Q370">
-        <v>1017</v>
-      </c>
-      <c r="R370">
-        <v>26</v>
-      </c>
-      <c r="S370">
-        <v>14</v>
-      </c>
-      <c r="T370">
-        <v>8</v>
-      </c>
-      <c r="U370">
-        <v>14</v>
-      </c>
-      <c r="V370">
-        <v>8</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>4</v>
-      </c>
-      <c r="AA370">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>26</v>
-      </c>
-      <c r="G371">
-        <v>18</v>
-      </c>
-      <c r="H371">
-        <v>10</v>
-      </c>
-      <c r="I371">
-        <v>-7</v>
-      </c>
-      <c r="J371">
-        <v>-11</v>
-      </c>
-      <c r="K371">
-        <v>-16</v>
-      </c>
-      <c r="L371">
-        <v>26</v>
-      </c>
-      <c r="M371">
-        <v>14</v>
-      </c>
-      <c r="N371">
-        <v>4</v>
-      </c>
-      <c r="O371">
-        <v>1024</v>
-      </c>
-      <c r="P371">
-        <v>1021</v>
-      </c>
-      <c r="Q371">
-        <v>1014</v>
-      </c>
-      <c r="R371">
-        <v>31</v>
-      </c>
-      <c r="S371">
-        <v>13</v>
-      </c>
-      <c r="T371">
-        <v>10</v>
-      </c>
-      <c r="U371">
-        <v>19</v>
-      </c>
-      <c r="V371">
-        <v>10</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>4</v>
-      </c>
-      <c r="AA371">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>28</v>
-      </c>
-      <c r="G372">
-        <v>19</v>
-      </c>
-      <c r="H372">
-        <v>11</v>
-      </c>
-      <c r="I372">
-        <v>-8</v>
-      </c>
-      <c r="J372">
-        <v>-10</v>
-      </c>
-      <c r="K372">
-        <v>-13</v>
-      </c>
-      <c r="L372">
-        <v>24</v>
-      </c>
-      <c r="M372">
-        <v>12</v>
-      </c>
-      <c r="N372">
-        <v>4</v>
-      </c>
-      <c r="O372">
-        <v>1023</v>
-      </c>
-      <c r="P372">
-        <v>1019</v>
-      </c>
-      <c r="Q372">
-        <v>1010</v>
-      </c>
-      <c r="R372">
-        <v>14</v>
-      </c>
-      <c r="S372">
-        <v>11</v>
-      </c>
-      <c r="T372">
-        <v>10</v>
-      </c>
-      <c r="U372">
-        <v>11</v>
-      </c>
-      <c r="V372">
-        <v>8</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>4</v>
-      </c>
-      <c r="AA372">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>28</v>
-      </c>
-      <c r="G373">
-        <v>22</v>
-      </c>
-      <c r="H373">
-        <v>15</v>
-      </c>
-      <c r="I373">
-        <v>-1</v>
-      </c>
-      <c r="J373">
-        <v>-6</v>
-      </c>
-      <c r="K373">
-        <v>-11</v>
-      </c>
-      <c r="L373">
-        <v>29</v>
-      </c>
-      <c r="M373">
-        <v>17</v>
-      </c>
-      <c r="N373">
-        <v>4</v>
-      </c>
-      <c r="O373">
-        <v>1018</v>
-      </c>
-      <c r="P373">
-        <v>1014</v>
-      </c>
-      <c r="Q373">
-        <v>1003</v>
-      </c>
-      <c r="R373">
-        <v>14</v>
-      </c>
-      <c r="S373">
-        <v>9</v>
-      </c>
-      <c r="T373">
-        <v>4</v>
-      </c>
-      <c r="U373">
-        <v>39</v>
-      </c>
-      <c r="V373">
-        <v>10</v>
-      </c>
-      <c r="W373">
-        <v>53</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>7</v>
-      </c>
-      <c r="AA373">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>28</v>
-      </c>
-      <c r="G374">
-        <v>22</v>
-      </c>
-      <c r="H374">
-        <v>16</v>
-      </c>
-      <c r="I374">
-        <v>7</v>
-      </c>
-      <c r="J374">
-        <v>3</v>
-      </c>
-      <c r="K374">
-        <v>-1</v>
-      </c>
-      <c r="L374">
-        <v>39</v>
-      </c>
-      <c r="M374">
-        <v>27</v>
-      </c>
-      <c r="N374">
-        <v>9</v>
-      </c>
-      <c r="O374">
-        <v>1016</v>
-      </c>
-      <c r="P374">
-        <v>1013</v>
-      </c>
-      <c r="Q374">
-        <v>1003</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>8</v>
-      </c>
-      <c r="T374">
-        <v>3</v>
-      </c>
-      <c r="U374">
-        <v>26</v>
-      </c>
-      <c r="V374">
-        <v>13</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>3</v>
-      </c>
-      <c r="AA374">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>31</v>
-      </c>
-      <c r="G375">
-        <v>24</v>
-      </c>
-      <c r="H375">
-        <v>19</v>
-      </c>
-      <c r="I375">
-        <v>6</v>
-      </c>
-      <c r="J375">
-        <v>1</v>
-      </c>
-      <c r="K375">
-        <v>-4</v>
-      </c>
-      <c r="L375">
-        <v>40</v>
-      </c>
-      <c r="M375">
-        <v>20</v>
-      </c>
-      <c r="N375">
-        <v>5</v>
-      </c>
-      <c r="O375">
-        <v>1014</v>
-      </c>
-      <c r="P375">
-        <v>1011</v>
-      </c>
-      <c r="Q375">
-        <v>1001</v>
-      </c>
-      <c r="R375">
-        <v>10</v>
-      </c>
-      <c r="S375">
-        <v>7</v>
-      </c>
-      <c r="T375">
-        <v>4</v>
-      </c>
-      <c r="U375">
-        <v>39</v>
-      </c>
-      <c r="V375">
-        <v>16</v>
-      </c>
-      <c r="W375">
-        <v>58</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>1</v>
-      </c>
-      <c r="AA375">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>29</v>
-      </c>
-      <c r="G376">
-        <v>22</v>
-      </c>
-      <c r="H376">
-        <v>16</v>
-      </c>
-      <c r="I376">
-        <v>9</v>
-      </c>
-      <c r="J376">
-        <v>-2</v>
-      </c>
-      <c r="K376">
-        <v>-15</v>
-      </c>
-      <c r="L376">
-        <v>59</v>
-      </c>
-      <c r="M376">
-        <v>25</v>
-      </c>
-      <c r="N376">
-        <v>4</v>
-      </c>
-      <c r="O376">
-        <v>1016</v>
-      </c>
-      <c r="P376">
-        <v>1012</v>
-      </c>
-      <c r="Q376">
-        <v>1002</v>
-      </c>
-      <c r="R376">
-        <v>18</v>
-      </c>
-      <c r="S376">
-        <v>10</v>
-      </c>
-      <c r="T376">
-        <v>5</v>
-      </c>
-      <c r="U376">
-        <v>29</v>
-      </c>
-      <c r="V376">
-        <v>14</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>4</v>
-      </c>
-      <c r="AA376">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>19</v>
-      </c>
-      <c r="G377">
-        <v>14</v>
-      </c>
-      <c r="H377">
-        <v>10</v>
-      </c>
-      <c r="I377">
-        <v>-5</v>
-      </c>
-      <c r="J377">
-        <v>-8</v>
-      </c>
-      <c r="K377">
-        <v>-12</v>
-      </c>
-      <c r="L377">
-        <v>28</v>
-      </c>
-      <c r="M377">
-        <v>18</v>
-      </c>
-      <c r="N377">
-        <v>7</v>
-      </c>
-      <c r="O377">
-        <v>1020</v>
-      </c>
-      <c r="P377">
-        <v>1015</v>
-      </c>
-      <c r="Q377">
-        <v>1007</v>
-      </c>
-      <c r="R377">
-        <v>14</v>
-      </c>
-      <c r="S377">
-        <v>9</v>
-      </c>
-      <c r="T377">
-        <v>4</v>
-      </c>
-      <c r="U377">
-        <v>14</v>
-      </c>
-      <c r="V377">
-        <v>10</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>7</v>
-      </c>
-      <c r="AA377">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>19</v>
-      </c>
-      <c r="G378">
-        <v>13</v>
-      </c>
-      <c r="H378">
-        <v>7</v>
-      </c>
-      <c r="I378">
-        <v>5</v>
-      </c>
-      <c r="J378">
-        <v>-6</v>
-      </c>
-      <c r="K378">
-        <v>-12</v>
-      </c>
-      <c r="L378">
-        <v>87</v>
-      </c>
-      <c r="M378">
-        <v>29</v>
-      </c>
-      <c r="N378">
-        <v>6</v>
-      </c>
-      <c r="O378">
-        <v>1018</v>
-      </c>
-      <c r="P378">
-        <v>1013</v>
-      </c>
-      <c r="Q378">
-        <v>1006</v>
-      </c>
-      <c r="R378">
-        <v>31</v>
-      </c>
-      <c r="S378">
-        <v>8</v>
-      </c>
-      <c r="T378">
-        <v>0</v>
-      </c>
-      <c r="U378">
-        <v>50</v>
-      </c>
-      <c r="V378">
-        <v>16</v>
-      </c>
-      <c r="W378">
-        <v>50</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>2</v>
-      </c>
-      <c r="AA378">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>13</v>
-      </c>
-      <c r="G379">
-        <v>9</v>
-      </c>
-      <c r="H379">
-        <v>4</v>
-      </c>
-      <c r="I379">
-        <v>7</v>
-      </c>
-      <c r="J379">
-        <v>4</v>
-      </c>
-      <c r="K379">
-        <v>-1</v>
-      </c>
-      <c r="L379">
-        <v>100</v>
-      </c>
-      <c r="M379">
-        <v>73</v>
-      </c>
-      <c r="N379">
-        <v>29</v>
-      </c>
-      <c r="O379">
-        <v>1023</v>
-      </c>
-      <c r="P379">
-        <v>1020</v>
-      </c>
-      <c r="Q379">
-        <v>1017</v>
-      </c>
-      <c r="R379">
-        <v>14</v>
-      </c>
-      <c r="S379">
-        <v>8</v>
-      </c>
-      <c r="T379">
-        <v>5</v>
-      </c>
-      <c r="U379">
-        <v>29</v>
-      </c>
-      <c r="V379">
-        <v>18</v>
-      </c>
-      <c r="X379">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y379">
-        <v>5</v>
-      </c>
-      <c r="Z379" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA379">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>21</v>
-      </c>
-      <c r="G380">
-        <v>13</v>
-      </c>
-      <c r="H380">
-        <v>6</v>
-      </c>
-      <c r="I380">
-        <v>7</v>
-      </c>
-      <c r="J380">
-        <v>-2</v>
-      </c>
-      <c r="K380">
-        <v>-10</v>
-      </c>
-      <c r="L380">
-        <v>100</v>
-      </c>
-      <c r="M380">
-        <v>41</v>
-      </c>
-      <c r="N380">
-        <v>6</v>
-      </c>
-      <c r="O380">
-        <v>1022</v>
-      </c>
-      <c r="P380">
-        <v>1019</v>
-      </c>
-      <c r="Q380">
-        <v>1012</v>
-      </c>
-      <c r="R380">
-        <v>26</v>
-      </c>
-      <c r="S380">
-        <v>12</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>19</v>
-      </c>
-      <c r="V380">
-        <v>6</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>3</v>
-      </c>
-      <c r="AA380">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>23</v>
-      </c>
-      <c r="G381">
-        <v>17</v>
-      </c>
-      <c r="H381">
-        <v>10</v>
-      </c>
-      <c r="I381">
-        <v>-4</v>
-      </c>
-      <c r="J381">
-        <v>-10</v>
-      </c>
-      <c r="K381">
-        <v>-15</v>
-      </c>
-      <c r="L381">
-        <v>37</v>
-      </c>
-      <c r="M381">
-        <v>15</v>
-      </c>
-      <c r="N381">
-        <v>4</v>
-      </c>
-      <c r="O381">
-        <v>1018</v>
-      </c>
-      <c r="P381">
-        <v>1015</v>
-      </c>
-      <c r="Q381">
-        <v>1009</v>
-      </c>
-      <c r="R381">
-        <v>31</v>
-      </c>
-      <c r="S381">
-        <v>25</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>26</v>
-      </c>
-      <c r="V381">
-        <v>13</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>6</v>
-      </c>
-      <c r="AA381">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>25</v>
-      </c>
-      <c r="G382">
-        <v>17</v>
-      </c>
-      <c r="H382">
-        <v>9</v>
-      </c>
-      <c r="I382">
-        <v>-3</v>
-      </c>
-      <c r="J382">
-        <v>-7</v>
-      </c>
-      <c r="K382">
-        <v>-12</v>
-      </c>
-      <c r="L382">
-        <v>40</v>
-      </c>
-      <c r="M382">
-        <v>19</v>
-      </c>
-      <c r="N382">
-        <v>4</v>
-      </c>
-      <c r="O382">
-        <v>1018</v>
-      </c>
-      <c r="P382">
-        <v>1015</v>
-      </c>
-      <c r="Q382">
-        <v>1007</v>
-      </c>
-      <c r="R382">
-        <v>31</v>
-      </c>
-      <c r="S382">
-        <v>22</v>
-      </c>
-      <c r="T382">
-        <v>14</v>
-      </c>
-      <c r="U382">
-        <v>14</v>
-      </c>
-      <c r="V382">
-        <v>8</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="AA382">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>27</v>
-      </c>
-      <c r="G383">
-        <v>19</v>
-      </c>
-      <c r="H383">
-        <v>11</v>
-      </c>
-      <c r="I383">
-        <v>-4</v>
-      </c>
-      <c r="J383">
-        <v>-7</v>
-      </c>
-      <c r="K383">
-        <v>-12</v>
-      </c>
-      <c r="L383">
-        <v>35</v>
-      </c>
-      <c r="M383">
-        <v>17</v>
-      </c>
-      <c r="N383">
-        <v>4</v>
-      </c>
-      <c r="O383">
-        <v>1017</v>
-      </c>
-      <c r="P383">
-        <v>1014</v>
-      </c>
-      <c r="Q383">
-        <v>1006</v>
-      </c>
-      <c r="R383">
-        <v>19</v>
-      </c>
-      <c r="S383">
-        <v>11</v>
-      </c>
-      <c r="T383">
-        <v>10</v>
-      </c>
-      <c r="U383">
-        <v>11</v>
-      </c>
-      <c r="V383">
-        <v>6</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>6</v>
-      </c>
-      <c r="AA383">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>25</v>
-      </c>
-      <c r="G384">
-        <v>21</v>
-      </c>
-      <c r="H384">
-        <v>17</v>
-      </c>
-      <c r="I384">
-        <v>-1</v>
-      </c>
-      <c r="J384">
-        <v>-4</v>
-      </c>
-      <c r="K384">
-        <v>-6</v>
-      </c>
-      <c r="L384">
-        <v>26</v>
-      </c>
-      <c r="M384">
-        <v>18</v>
-      </c>
-      <c r="N384">
-        <v>6</v>
-      </c>
-      <c r="O384">
-        <v>1017</v>
-      </c>
-      <c r="P384">
-        <v>1014</v>
-      </c>
-      <c r="Q384">
-        <v>1007</v>
-      </c>
-      <c r="R384">
-        <v>14</v>
-      </c>
-      <c r="S384">
-        <v>10</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>26</v>
-      </c>
-      <c r="V384">
-        <v>16</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>4</v>
-      </c>
-      <c r="AA384">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>25</v>
-      </c>
-      <c r="G385">
-        <v>19</v>
-      </c>
-      <c r="H385">
-        <v>12</v>
-      </c>
-      <c r="I385">
-        <v>0</v>
-      </c>
-      <c r="J385">
-        <v>-3</v>
-      </c>
-      <c r="K385">
-        <v>-5</v>
-      </c>
-      <c r="L385">
-        <v>33</v>
-      </c>
-      <c r="M385">
-        <v>21</v>
-      </c>
-      <c r="N385">
-        <v>7</v>
-      </c>
-      <c r="O385">
-        <v>1019</v>
-      </c>
-      <c r="P385">
-        <v>1016</v>
-      </c>
-      <c r="Q385">
-        <v>1009</v>
-      </c>
-      <c r="R385">
-        <v>26</v>
-      </c>
-      <c r="S385">
-        <v>11</v>
-      </c>
-      <c r="T385">
-        <v>10</v>
-      </c>
-      <c r="U385">
-        <v>23</v>
-      </c>
-      <c r="V385">
-        <v>6</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>3</v>
-      </c>
-      <c r="AA385">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>23</v>
-      </c>
-      <c r="G386">
-        <v>19</v>
-      </c>
-      <c r="H386">
-        <v>16</v>
-      </c>
-      <c r="I386">
-        <v>3</v>
-      </c>
-      <c r="J386">
-        <v>1</v>
-      </c>
-      <c r="K386">
-        <v>-2</v>
-      </c>
-      <c r="L386">
-        <v>42</v>
-      </c>
-      <c r="M386">
-        <v>28</v>
-      </c>
-      <c r="N386">
-        <v>11</v>
-      </c>
-      <c r="O386">
-        <v>1019</v>
-      </c>
-      <c r="P386">
-        <v>1017</v>
-      </c>
-      <c r="Q386">
-        <v>1010</v>
-      </c>
-      <c r="R386">
-        <v>26</v>
-      </c>
-      <c r="S386">
-        <v>11</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>26</v>
-      </c>
-      <c r="V386">
-        <v>10</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>3</v>
-      </c>
-      <c r="AA386">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>27</v>
-      </c>
-      <c r="G387">
-        <v>20</v>
-      </c>
-      <c r="H387">
-        <v>13</v>
-      </c>
-      <c r="I387">
-        <v>3</v>
-      </c>
-      <c r="J387">
-        <v>-1</v>
-      </c>
-      <c r="K387">
-        <v>-2</v>
-      </c>
-      <c r="L387">
-        <v>48</v>
-      </c>
-      <c r="M387">
-        <v>25</v>
-      </c>
-      <c r="N387">
-        <v>8</v>
-      </c>
-      <c r="O387">
-        <v>1021</v>
-      </c>
-      <c r="P387">
-        <v>1017</v>
-      </c>
-      <c r="Q387">
-        <v>1010</v>
-      </c>
-      <c r="R387">
-        <v>11</v>
-      </c>
-      <c r="S387">
-        <v>10</v>
-      </c>
-      <c r="T387">
-        <v>10</v>
-      </c>
-      <c r="U387">
-        <v>8</v>
-      </c>
-      <c r="V387">
-        <v>5</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>2</v>
-      </c>
-      <c r="AA387">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>28</v>
-      </c>
-      <c r="G388">
-        <v>21</v>
-      </c>
-      <c r="H388">
-        <v>15</v>
-      </c>
-      <c r="I388">
-        <v>6</v>
-      </c>
-      <c r="J388">
-        <v>1</v>
-      </c>
-      <c r="K388">
-        <v>-2</v>
-      </c>
-      <c r="L388">
-        <v>36</v>
-      </c>
-      <c r="M388">
-        <v>24</v>
-      </c>
-      <c r="N388">
-        <v>9</v>
-      </c>
-      <c r="O388">
-        <v>1020</v>
-      </c>
-      <c r="P388">
-        <v>1016</v>
-      </c>
-      <c r="Q388">
-        <v>1008</v>
-      </c>
-      <c r="R388">
-        <v>11</v>
-      </c>
-      <c r="S388">
-        <v>9</v>
-      </c>
-      <c r="T388">
-        <v>5</v>
-      </c>
-      <c r="U388">
-        <v>32</v>
-      </c>
-      <c r="V388">
-        <v>8</v>
-      </c>
-      <c r="W388">
-        <v>50</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>5</v>
-      </c>
-      <c r="AA388">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -29920,7 +28475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29932,7 +28487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
